--- a/data/Intra_test.xlsx
+++ b/data/Intra_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - tju.edu.cn\Academic\NN\gru\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tjueducn-my.sharepoint.com/personal/jiayu_chen_tju_edu_cn/Documents/Academic/NN/gru/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E99487-E6F9-4118-9E24-FDC1A08C5D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C9E99487-E6F9-4118-9E24-FDC1A08C5D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D985A4E-5971-4316-8B78-47CB614F59A6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>cg</t>
   </si>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>x1609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G322"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,8 +413,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>531.5</v>
       </c>
@@ -432,8 +439,11 @@
       <c r="G2" s="1">
         <v>5.0430903166550998</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>771.1</v>
       </c>
@@ -455,8 +465,11 @@
       <c r="G3" s="1">
         <v>4.5095635142018198</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>683.9</v>
       </c>
@@ -478,8 +491,11 @@
       <c r="G4" s="1">
         <v>4.7587992030375403</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>413.8</v>
       </c>
@@ -501,8 +517,11 @@
       <c r="G5" s="1">
         <v>4.4769496675925202</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>520.4</v>
       </c>
@@ -524,8 +543,11 @@
       <c r="G6" s="1">
         <v>4.2707384739260297</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>586.70000000000005</v>
       </c>
@@ -547,8 +569,11 @@
       <c r="G7" s="1">
         <v>4.3818978266712696</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>71.900000000000006</v>
       </c>
@@ -570,8 +595,11 @@
       <c r="G8" s="1">
         <v>4.5392175152739602</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>447.8</v>
       </c>
@@ -593,8 +621,11 @@
       <c r="G9" s="1">
         <v>4.3253112117164001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>111.2</v>
       </c>
@@ -616,8 +647,11 @@
       <c r="G10" s="1">
         <v>5.1478874851813803</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>432.5</v>
       </c>
@@ -639,8 +673,11 @@
       <c r="G11" s="1">
         <v>4.6303802868959796</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>829</v>
       </c>
@@ -662,8 +699,11 @@
       <c r="G12" s="1">
         <v>4.1178801661352002</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>393.9</v>
       </c>
@@ -685,8 +725,11 @@
       <c r="G13" s="1">
         <v>4.65127238617786</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>178.6</v>
       </c>
@@ -708,8 +751,11 @@
       <c r="G14" s="1">
         <v>5.0851960161822598</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>54.9</v>
       </c>
@@ -731,8 +777,11 @@
       <c r="G15" s="1">
         <v>4.26467086485063</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>93.3</v>
       </c>
@@ -754,8 +803,11 @@
       <c r="G16" s="1">
         <v>5.0809597818433696</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>255.1</v>
       </c>
@@ -777,8 +829,11 @@
       <c r="G17" s="1">
         <v>4.6711363592349597</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>805.5</v>
       </c>
@@ -800,8 +855,11 @@
       <c r="G18" s="1">
         <v>4.9450461736581701</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>176</v>
       </c>
@@ -823,8 +881,11 @@
       <c r="G19" s="1">
         <v>4.13954251179835</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>370.3</v>
       </c>
@@ -846,8 +907,11 @@
       <c r="G20" s="1">
         <v>4.1477417916909403</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>635.79999999999995</v>
       </c>
@@ -869,8 +933,11 @@
       <c r="G21" s="1">
         <v>5.01622133530776</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>209.9</v>
       </c>
@@ -892,8 +959,11 @@
       <c r="G22" s="1">
         <v>4.4070246628058198</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>990.2</v>
       </c>
@@ -915,8 +985,11 @@
       <c r="G23" s="1">
         <v>4.4849924947199398</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>378.1</v>
       </c>
@@ -938,8 +1011,11 @@
       <c r="G24" s="1">
         <v>4.5310696897991702</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>371.8</v>
       </c>
@@ -961,8 +1037,11 @@
       <c r="G25" s="1">
         <v>5.1465981202286404</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>99.8</v>
       </c>
@@ -984,8 +1063,11 @@
       <c r="G26" s="1">
         <v>4.79845596194422</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>676.7</v>
       </c>
@@ -1007,8 +1089,11 @@
       <c r="G27" s="1">
         <v>4.2207810746896897</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>270.7</v>
       </c>
@@ -1030,8 +1115,11 @@
       <c r="G28" s="1">
         <v>4.9745311303427302</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>206.8</v>
       </c>
@@ -1053,8 +1141,11 @@
       <c r="G29" s="1">
         <v>4.3581640920495799</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>324.89999999999998</v>
       </c>
@@ -1076,8 +1167,11 @@
       <c r="G30" s="1">
         <v>5.0025369197682998</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>265.10000000000002</v>
       </c>
@@ -1099,8 +1193,11 @@
       <c r="G31" s="1">
         <v>4.8400786634324602</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>165</v>
       </c>
@@ -1122,8 +1219,11 @@
       <c r="G32" s="1">
         <v>5.0276307608354598</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>641.5</v>
       </c>
@@ -1145,8 +1245,11 @@
       <c r="G33" s="1">
         <v>4.3466051316078396</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>313</v>
       </c>
@@ -1168,8 +1271,11 @@
       <c r="G34" s="1">
         <v>4.4665562419506202</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>466.8</v>
       </c>
@@ -1191,8 +1297,11 @@
       <c r="G35" s="1">
         <v>4.6670647449063498</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>176</v>
       </c>
@@ -1214,8 +1323,11 @@
       <c r="G36" s="1">
         <v>4.99172081071137</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>815.1</v>
       </c>
@@ -1237,8 +1349,11 @@
       <c r="G37" s="1">
         <v>4.4962426477975503</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>489</v>
       </c>
@@ -1260,8 +1375,11 @@
       <c r="G38" s="1">
         <v>4.5177977343143301</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>167.2</v>
       </c>
@@ -1283,8 +1401,11 @@
       <c r="G39" s="1">
         <v>4.38127486299088</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>9.1</v>
       </c>
@@ -1306,8 +1427,11 @@
       <c r="G40" s="1">
         <v>4.9877021655430198</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>609.5</v>
       </c>
@@ -1329,8 +1453,11 @@
       <c r="G41" s="1">
         <v>4.9114618296407002</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>377.6</v>
       </c>
@@ -1352,8 +1479,11 @@
       <c r="G42" s="1">
         <v>4.7879973953872801</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>881.5</v>
       </c>
@@ -1375,8 +1505,11 @@
       <c r="G43" s="1">
         <v>4.6829643333690303</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>586.1</v>
       </c>
@@ -1398,8 +1531,11 @@
       <c r="G44" s="1">
         <v>4.9968036061441898</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>778.5</v>
       </c>
@@ -1421,8 +1557,11 @@
       <c r="G45" s="1">
         <v>4.9628813175850102</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>140.4</v>
       </c>
@@ -1444,8 +1583,11 @@
       <c r="G46" s="1">
         <v>4.3137060817773802</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>132.5</v>
       </c>
@@ -1467,8 +1609,11 @@
       <c r="G47" s="1">
         <v>4.74496092089319</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>533.20000000000005</v>
       </c>
@@ -1490,8 +1635,11 @@
       <c r="G48" s="1">
         <v>4.21692455852018</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>716.6</v>
       </c>
@@ -1513,8 +1661,11 @@
       <c r="G49" s="1">
         <v>4.45685636195984</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>412.6</v>
       </c>
@@ -1536,8 +1687,11 @@
       <c r="G50" s="1">
         <v>4.8816856172948597</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>389.4</v>
       </c>
@@ -1559,8 +1713,11 @@
       <c r="G51" s="1">
         <v>4.4801382799881404</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>989.3</v>
       </c>
@@ -1582,8 +1739,11 @@
       <c r="G52" s="1">
         <v>4.70358095305094</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>959.7</v>
       </c>
@@ -1605,8 +1765,11 @@
       <c r="G53" s="1">
         <v>4.8540139552058301</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>450.1</v>
       </c>
@@ -1628,8 +1791,11 @@
       <c r="G54" s="1">
         <v>4.8997607170634003</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>475.9</v>
       </c>
@@ -1651,8 +1817,11 @@
       <c r="G55" s="1">
         <v>4.8720728770025898</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>816.8</v>
       </c>
@@ -1674,8 +1843,11 @@
       <c r="G56" s="1">
         <v>4.4658973273961804</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>541.70000000000005</v>
       </c>
@@ -1697,8 +1869,11 @@
       <c r="G57" s="1">
         <v>5.0100193482937403</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>628.20000000000005</v>
       </c>
@@ -1720,8 +1895,11 @@
       <c r="G58" s="1">
         <v>4.55937234473092</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>933.9</v>
       </c>
@@ -1743,8 +1921,11 @@
       <c r="G59" s="1">
         <v>4.6802895195454797</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>763.3</v>
       </c>
@@ -1766,8 +1947,11 @@
       <c r="G60" s="1">
         <v>4.4521287825845297</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>100.5</v>
       </c>
@@ -1789,8 +1973,11 @@
       <c r="G61" s="1">
         <v>4.9688540294815802</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>743.2</v>
       </c>
@@ -1812,8 +1999,11 @@
       <c r="G62" s="1">
         <v>4.5565337461854103</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>145.69999999999999</v>
       </c>
@@ -1835,8 +2025,11 @@
       <c r="G63" s="1">
         <v>5.0740939130606604</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>639.1</v>
       </c>
@@ -1858,8 +2051,11 @@
       <c r="G64" s="1">
         <v>4.4602442706287801</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>773.4</v>
       </c>
@@ -1881,8 +2077,11 @@
       <c r="G65" s="1">
         <v>4.6269437477340096</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>997.9</v>
       </c>
@@ -1904,8 +2103,11 @@
       <c r="G66" s="1">
         <v>4.5871166682170497</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>163.4</v>
       </c>
@@ -1927,8 +2129,11 @@
       <c r="G67" s="1">
         <v>4.7881286559501204</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>517.5</v>
       </c>
@@ -1950,8 +2155,11 @@
       <c r="G68" s="1">
         <v>4.8862553499232897</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>399.3</v>
       </c>
@@ -1973,8 +2181,11 @@
       <c r="G69" s="1">
         <v>5.0966059054152</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>56.5</v>
       </c>
@@ -1996,8 +2207,11 @@
       <c r="G70" s="1">
         <v>4.6638067368644798</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>378.4</v>
       </c>
@@ -2019,8 +2233,11 @@
       <c r="G71" s="1">
         <v>4.5708152836723901</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>729.7</v>
       </c>
@@ -2042,8 +2259,11 @@
       <c r="G72" s="1">
         <v>4.5482926933133099</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>668.6</v>
       </c>
@@ -2065,8 +2285,11 @@
       <c r="G73" s="1">
         <v>4.4506775099317704</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>844.3</v>
       </c>
@@ -2088,8 +2311,11 @@
       <c r="G74" s="1">
         <v>4.7976860460482902</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>262.60000000000002</v>
       </c>
@@ -2111,8 +2337,11 @@
       <c r="G75" s="1">
         <v>4.1034381863840803</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>784.4</v>
       </c>
@@ -2134,8 +2363,11 @@
       <c r="G76" s="1">
         <v>4.9295898986029103</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>591.6</v>
       </c>
@@ -2157,8 +2389,11 @@
       <c r="G77" s="1">
         <v>4.6644567559865999</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>431.9</v>
       </c>
@@ -2180,8 +2415,11 @@
       <c r="G78" s="1">
         <v>4.73333514881576</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>847.9</v>
       </c>
@@ -2203,8 +2441,11 @@
       <c r="G79" s="1">
         <v>4.4949308169088198</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>130.69999999999999</v>
       </c>
@@ -2226,8 +2467,11 @@
       <c r="G80" s="1">
         <v>4.8157548922485898</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>496.7</v>
       </c>
@@ -2249,8 +2493,11 @@
       <c r="G81" s="1">
         <v>5.1576620610000701</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>898.2</v>
       </c>
@@ -2272,8 +2519,11 @@
       <c r="G82" s="1">
         <v>4.7471430651125797</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>399.8</v>
       </c>
@@ -2295,8 +2545,11 @@
       <c r="G83" s="1">
         <v>4.7408254515469297</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>305.2</v>
       </c>
@@ -2318,8 +2571,11 @@
       <c r="G84" s="1">
         <v>4.8549219648658202</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>212.7</v>
       </c>
@@ -2341,8 +2597,11 @@
       <c r="G85" s="1">
         <v>4.6740229324715301</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>457.8</v>
       </c>
@@ -2364,8 +2623,11 @@
       <c r="G86" s="1">
         <v>5.0276505749363798</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>291.2</v>
       </c>
@@ -2387,8 +2649,11 @@
       <c r="G87" s="1">
         <v>4.6632055268653803</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>434.6</v>
       </c>
@@ -2410,8 +2675,11 @@
       <c r="G88" s="1">
         <v>5.0505957409114099</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>110.7</v>
       </c>
@@ -2433,8 +2701,11 @@
       <c r="G89" s="1">
         <v>4.4287440113871996</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>626.79999999999995</v>
       </c>
@@ -2456,8 +2727,11 @@
       <c r="G90" s="1">
         <v>4.9645817469367</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>334.8</v>
       </c>
@@ -2479,8 +2753,11 @@
       <c r="G91" s="1">
         <v>5.1992568822877496</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>683.6</v>
       </c>
@@ -2502,8 +2779,11 @@
       <c r="G92" s="1">
         <v>5.0119678062231197</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>819.2</v>
       </c>
@@ -2525,8 +2805,11 @@
       <c r="G93" s="1">
         <v>4.8137963729387998</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>273</v>
       </c>
@@ -2548,8 +2831,11 @@
       <c r="G94" s="1">
         <v>4.8796800041452499</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>327.10000000000002</v>
       </c>
@@ -2571,8 +2857,11 @@
       <c r="G95" s="1">
         <v>4.7477094611099098</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>64.099999999999994</v>
       </c>
@@ -2594,8 +2883,11 @@
       <c r="G96" s="1">
         <v>4.7683965744929599</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="1">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>861.9</v>
       </c>
@@ -2617,8 +2909,11 @@
       <c r="G97" s="1">
         <v>5.0089857270784401</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>692.2</v>
       </c>
@@ -2640,8 +2935,11 @@
       <c r="G98" s="1">
         <v>4.9798196692032803</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>328.4</v>
       </c>
@@ -2663,8 +2961,11 @@
       <c r="G99" s="1">
         <v>5.16129798925859</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>296.3</v>
       </c>
@@ -2686,8 +2987,11 @@
       <c r="G100" s="1">
         <v>4.4777233870086102</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>877</v>
       </c>
@@ -2709,8 +3013,11 @@
       <c r="G101" s="1">
         <v>5.0028925739201702</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>907.6</v>
       </c>
@@ -2732,8 +3039,11 @@
       <c r="G102" s="1">
         <v>4.7518314859761999</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>194.9</v>
       </c>
@@ -2755,8 +3065,11 @@
       <c r="G103" s="1">
         <v>4.2729397418830199</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>722.2</v>
       </c>
@@ -2778,8 +3091,11 @@
       <c r="G104" s="1">
         <v>4.2707596299331296</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>216.8</v>
       </c>
@@ -2801,8 +3117,11 @@
       <c r="G105" s="1">
         <v>4.4951658537348198</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>880.3</v>
       </c>
@@ -2824,8 +3143,11 @@
       <c r="G106" s="1">
         <v>4.3652093528183604</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>776.6</v>
       </c>
@@ -2847,8 +3169,11 @@
       <c r="G107" s="1">
         <v>4.8970414206673896</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>91.3</v>
       </c>
@@ -2870,8 +3195,11 @@
       <c r="G108" s="1">
         <v>4.9194026578161401</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>903.5</v>
       </c>
@@ -2893,8 +3221,11 @@
       <c r="G109" s="1">
         <v>4.3291962510802504</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>618.6</v>
       </c>
@@ -2916,8 +3247,11 @@
       <c r="G110" s="1">
         <v>4.89869781894261</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>666</v>
       </c>
@@ -2939,8 +3273,11 @@
       <c r="G111" s="1">
         <v>4.3517706676458001</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>969.1</v>
       </c>
@@ -2962,8 +3299,11 @@
       <c r="G112" s="1">
         <v>4.3543375816355399</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>290.39999999999998</v>
       </c>
@@ -2985,8 +3325,11 @@
       <c r="G113" s="1">
         <v>5.1073929046009203</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -3008,8 +3351,11 @@
       <c r="G114" s="1">
         <v>5.0712649571557504</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>561.79999999999995</v>
       </c>
@@ -3031,8 +3377,11 @@
       <c r="G115" s="1">
         <v>4.5062543421654198</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="1">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>132</v>
       </c>
@@ -3054,8 +3403,11 @@
       <c r="G116" s="1">
         <v>4.8102022814590102</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="1">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>430.5</v>
       </c>
@@ -3077,8 +3429,11 @@
       <c r="G117" s="1">
         <v>5.0147824079193803</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>429.2</v>
       </c>
@@ -3100,8 +3455,11 @@
       <c r="G118" s="1">
         <v>5.0272029267957699</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>53.4</v>
       </c>
@@ -3123,8 +3481,11 @@
       <c r="G119" s="1">
         <v>4.6184324022305798</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>839.2</v>
       </c>
@@ -3146,8 +3507,11 @@
       <c r="G120" s="1">
         <v>4.0628646387185796</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>930</v>
       </c>
@@ -3169,8 +3533,11 @@
       <c r="G121" s="1">
         <v>5.0744666278444299</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>367.4</v>
       </c>
@@ -3192,8 +3559,11 @@
       <c r="G122" s="1">
         <v>4.3712597298732199</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>109.7</v>
       </c>
@@ -3215,8 +3585,11 @@
       <c r="G123" s="1">
         <v>5.1294818761664702</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>487</v>
       </c>
@@ -3238,8 +3611,11 @@
       <c r="G124" s="1">
         <v>4.42334286482164</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="1">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>760.6</v>
       </c>
@@ -3261,8 +3637,11 @@
       <c r="G125" s="1">
         <v>4.6264625416515504</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="1">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>838.9</v>
       </c>
@@ -3284,8 +3663,11 @@
       <c r="G126" s="1">
         <v>4.1449054383635602</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>242.4</v>
       </c>
@@ -3307,8 +3689,11 @@
       <c r="G127" s="1">
         <v>4.6798033496801201</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>260.89999999999998</v>
       </c>
@@ -3330,8 +3715,11 @@
       <c r="G128" s="1">
         <v>4.4604604431983699</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="1">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>403.1</v>
       </c>
@@ -3353,8 +3741,11 @@
       <c r="G129" s="1">
         <v>4.2811593221202298</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>601.9</v>
       </c>
@@ -3376,8 +3767,11 @@
       <c r="G130" s="1">
         <v>4.7563532329485598</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>201.3</v>
       </c>
@@ -3399,8 +3793,11 @@
       <c r="G131" s="1">
         <v>4.5901280754093801</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>87.4</v>
       </c>
@@ -3422,8 +3819,11 @@
       <c r="G132" s="1">
         <v>4.9304652801429301</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>313.60000000000002</v>
       </c>
@@ -3445,8 +3845,11 @@
       <c r="G133" s="1">
         <v>4.6430685246574903</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>361.6</v>
       </c>
@@ -3468,8 +3871,11 @@
       <c r="G134" s="1">
         <v>5.0299869666860202</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>405.7</v>
       </c>
@@ -3491,8 +3897,11 @@
       <c r="G135" s="1">
         <v>5.16404836489325</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>467.7</v>
       </c>
@@ -3514,8 +3923,11 @@
       <c r="G136" s="1">
         <v>4.9597619114010003</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>273.60000000000002</v>
       </c>
@@ -3537,8 +3949,11 @@
       <c r="G137" s="1">
         <v>4.9488375984634603</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>577.79999999999995</v>
       </c>
@@ -3560,8 +3975,11 @@
       <c r="G138" s="1">
         <v>4.91430193990014</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>853.3</v>
       </c>
@@ -3583,8 +4001,11 @@
       <c r="G139" s="1">
         <v>4.9655739845297999</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>67.599999999999994</v>
       </c>
@@ -3606,8 +4027,11 @@
       <c r="G140" s="1">
         <v>5.1370553585616499</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>770.2</v>
       </c>
@@ -3629,8 +4053,11 @@
       <c r="G141" s="1">
         <v>4.9141691796357101</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>986</v>
       </c>
@@ -3652,8 +4079,11 @@
       <c r="G142" s="1">
         <v>4.9003010604212296</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>548.4</v>
       </c>
@@ -3675,8 +4105,11 @@
       <c r="G143" s="1">
         <v>4.3904780769812399</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>731</v>
       </c>
@@ -3698,8 +4131,11 @@
       <c r="G144" s="1">
         <v>4.81702017916062</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>19.8</v>
       </c>
@@ -3721,8 +4157,11 @@
       <c r="G145" s="1">
         <v>4.6339980776644101</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>608.5</v>
       </c>
@@ -3744,8 +4183,11 @@
       <c r="G146" s="1">
         <v>4.9386893311718998</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>653.70000000000005</v>
       </c>
@@ -3767,8 +4209,11 @@
       <c r="G147" s="1">
         <v>4.4488204859906402</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>600.29999999999995</v>
       </c>
@@ -3790,8 +4235,11 @@
       <c r="G148" s="1">
         <v>4.3979669577440603</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>609.4</v>
       </c>
@@ -3813,8 +4261,11 @@
       <c r="G149" s="1">
         <v>4.3381611510545603</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>172.2</v>
       </c>
@@ -3836,8 +4287,11 @@
       <c r="G150" s="1">
         <v>4.4266819208136301</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>821.9</v>
       </c>
@@ -3859,8 +4313,11 @@
       <c r="G151" s="1">
         <v>4.8092253668092901</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>650.1</v>
       </c>
@@ -3882,8 +4339,11 @@
       <c r="G152" s="1">
         <v>4.4207711566802699</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>389.9</v>
       </c>
@@ -3905,8 +4365,11 @@
       <c r="G153" s="1">
         <v>5.0009996880449696</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>291.60000000000002</v>
       </c>
@@ -3928,8 +4391,11 @@
       <c r="G154" s="1">
         <v>4.8191075778918098</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>844.5</v>
       </c>
@@ -3951,8 +4417,11 @@
       <c r="G155" s="1">
         <v>4.1950526749385801</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>558.1</v>
       </c>
@@ -3974,8 +4443,11 @@
       <c r="G156" s="1">
         <v>5.0277594429749897</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>241.3</v>
       </c>
@@ -3997,8 +4469,11 @@
       <c r="G157" s="1">
         <v>4.8683074662742003</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>615.9</v>
       </c>
@@ -4020,8 +4495,11 @@
       <c r="G158" s="1">
         <v>4.9787230191781102</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>39.1</v>
       </c>
@@ -4043,8 +4521,11 @@
       <c r="G159" s="1">
         <v>5.0206861944649201</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>739.3</v>
       </c>
@@ -4066,8 +4547,11 @@
       <c r="G160" s="1">
         <v>4.4360313792222197</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>35.700000000000003</v>
       </c>
@@ -4089,8 +4573,11 @@
       <c r="G161" s="1">
         <v>5.1679724371067399</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>843.4</v>
       </c>
@@ -4112,8 +4599,11 @@
       <c r="G162" s="1">
         <v>4.7678957186081998</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>305.5</v>
       </c>
@@ -4135,8 +4625,11 @@
       <c r="G163" s="1">
         <v>4.5257553748624799</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>618.9</v>
       </c>
@@ -4158,8 +4651,11 @@
       <c r="G164" s="1">
         <v>4.8742475734687902</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>16</v>
       </c>
@@ -4181,8 +4677,11 @@
       <c r="G165" s="1">
         <v>4.2295641211662502</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>367.2</v>
       </c>
@@ -4204,8 +4703,11 @@
       <c r="G166" s="1">
         <v>4.6493782393488097</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>271.2</v>
       </c>
@@ -4227,8 +4729,11 @@
       <c r="G167" s="1">
         <v>4.4620082579501696</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>918</v>
       </c>
@@ -4250,8 +4755,11 @@
       <c r="G168" s="1">
         <v>4.7500165407004697</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>581.6</v>
       </c>
@@ -4273,8 +4781,11 @@
       <c r="G169" s="1">
         <v>4.8194322906884404</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>778.9</v>
       </c>
@@ -4296,8 +4807,11 @@
       <c r="G170" s="1">
         <v>4.5199018307662504</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>450.2</v>
       </c>
@@ -4319,8 +4833,11 @@
       <c r="G171" s="1">
         <v>4.3461337350537601</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="1">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>686.1</v>
       </c>
@@ -4342,8 +4859,11 @@
       <c r="G172" s="1">
         <v>4.1987828416693098</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>102.4</v>
       </c>
@@ -4365,8 +4885,11 @@
       <c r="G173" s="1">
         <v>4.9469856135367998</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>525.1</v>
       </c>
@@ -4388,8 +4911,11 @@
       <c r="G174" s="1">
         <v>4.9238766246020598</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>89.8</v>
       </c>
@@ -4411,8 +4937,11 @@
       <c r="G175" s="1">
         <v>4.9077747152262203</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>943.4</v>
       </c>
@@ -4434,8 +4963,11 @@
       <c r="G176" s="1">
         <v>4.6325876318036903</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>690.6</v>
       </c>
@@ -4457,8 +4989,11 @@
       <c r="G177" s="1">
         <v>4.3475686988405799</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>807.9</v>
       </c>
@@ -4480,8 +5015,11 @@
       <c r="G178" s="1">
         <v>4.5603340566431703</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>150.9</v>
       </c>
@@ -4503,8 +5041,11 @@
       <c r="G179" s="1">
         <v>4.5043006185839403</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>271.3</v>
       </c>
@@ -4526,8 +5067,11 @@
       <c r="G180" s="1">
         <v>4.97934749803506</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>222.5</v>
       </c>
@@ -4549,8 +5093,11 @@
       <c r="G181" s="1">
         <v>4.5845909263040099</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>119.1</v>
       </c>
@@ -4572,8 +5119,11 @@
       <c r="G182" s="1">
         <v>4.5654044865819703</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>52.8</v>
       </c>
@@ -4595,8 +5145,11 @@
       <c r="G183" s="1">
         <v>4.8454090295089101</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>786.9</v>
       </c>
@@ -4618,8 +5171,11 @@
       <c r="G184" s="1">
         <v>4.5020691030620901</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>456.1</v>
       </c>
@@ -4641,8 +5197,11 @@
       <c r="G185" s="1">
         <v>4.6638484260123301</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>181.9</v>
       </c>
@@ -4664,8 +5223,11 @@
       <c r="G186" s="1">
         <v>4.4199730059132003</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>65.900000000000006</v>
       </c>
@@ -4687,8 +5249,11 @@
       <c r="G187" s="1">
         <v>4.2591857048747297</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>826.3</v>
       </c>
@@ -4710,8 +5275,11 @@
       <c r="G188" s="1">
         <v>5.02579648789962</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>260.3</v>
       </c>
@@ -4733,8 +5301,11 @@
       <c r="G189" s="1">
         <v>4.7446477846953004</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>295.8</v>
       </c>
@@ -4756,8 +5327,11 @@
       <c r="G190" s="1">
         <v>4.2883078108796999</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>516.9</v>
       </c>
@@ -4779,8 +5353,11 @@
       <c r="G191" s="1">
         <v>4.90195581197972</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>509</v>
       </c>
@@ -4802,8 +5379,11 @@
       <c r="G192" s="1">
         <v>4.49108486337974</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>502.3</v>
       </c>
@@ -4825,8 +5405,11 @@
       <c r="G193" s="1">
         <v>4.9310795399835703</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>551.79999999999995</v>
       </c>
@@ -4848,8 +5431,11 @@
       <c r="G194" s="1">
         <v>5.0405595432420904</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>566.70000000000005</v>
       </c>
@@ -4871,8 +5457,11 @@
       <c r="G195" s="1">
         <v>4.9219010015282798</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>317.8</v>
       </c>
@@ -4894,8 +5483,11 @@
       <c r="G196" s="1">
         <v>4.6783104197018002</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>293.5</v>
       </c>
@@ -4917,8 +5509,11 @@
       <c r="G197" s="1">
         <v>4.4850199551485099</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>673.6</v>
       </c>
@@ -4940,8 +5535,11 @@
       <c r="G198" s="1">
         <v>4.9614584168344003</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>930</v>
       </c>
@@ -4963,8 +5561,11 @@
       <c r="G199" s="1">
         <v>5.0364872969858396</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>272</v>
       </c>
@@ -4986,8 +5587,11 @@
       <c r="G200" s="1">
         <v>4.5382466773406396</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>282.89999999999998</v>
       </c>
@@ -5009,8 +5613,11 @@
       <c r="G201" s="1">
         <v>4.8356479177042297</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>258</v>
       </c>
@@ -5032,8 +5639,11 @@
       <c r="G202" s="1">
         <v>4.9362698311585902</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>919.7</v>
       </c>
@@ -5055,8 +5665,11 @@
       <c r="G203" s="1">
         <v>4.7113166303505603</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>498.2</v>
       </c>
@@ -5078,8 +5691,11 @@
       <c r="G204" s="1">
         <v>4.9552650055374503</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>841.6</v>
       </c>
@@ -5101,8 +5717,11 @@
       <c r="G205" s="1">
         <v>4.9947639158524897</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>604.79999999999995</v>
       </c>
@@ -5124,8 +5743,11 @@
       <c r="G206" s="1">
         <v>4.6425895778824904</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="1">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>530.4</v>
       </c>
@@ -5147,8 +5769,11 @@
       <c r="G207" s="1">
         <v>4.7409358963752499</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>576.79999999999995</v>
       </c>
@@ -5170,8 +5795,11 @@
       <c r="G208" s="1">
         <v>4.4921739014752298</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>491.1</v>
       </c>
@@ -5193,8 +5821,11 @@
       <c r="G209" s="1">
         <v>4.96416170199912</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>232.2</v>
       </c>
@@ -5216,8 +5847,11 @@
       <c r="G210" s="1">
         <v>4.7967803263125601</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>14.8</v>
       </c>
@@ -5239,8 +5873,11 @@
       <c r="G211" s="1">
         <v>4.7503577411474103</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>36</v>
       </c>
@@ -5262,8 +5899,11 @@
       <c r="G212" s="1">
         <v>4.4346809672141303</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>641.79999999999995</v>
       </c>
@@ -5285,8 +5925,11 @@
       <c r="G213" s="1">
         <v>5.0093826545264202</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>110.7</v>
       </c>
@@ -5308,8 +5951,11 @@
       <c r="G214" s="1">
         <v>4.7467050167070104</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>832.6</v>
       </c>
@@ -5331,8 +5977,11 @@
       <c r="G215" s="1">
         <v>4.9416291487472304</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>707.4</v>
       </c>
@@ -5354,8 +6003,11 @@
       <c r="G216" s="1">
         <v>4.6709113150991799</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>552.20000000000005</v>
       </c>
@@ -5377,8 +6029,11 @@
       <c r="G217" s="1">
         <v>4.2704595652562602</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>659.4</v>
       </c>
@@ -5400,8 +6055,11 @@
       <c r="G218" s="1">
         <v>4.8821114556433098</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>472.6</v>
       </c>
@@ -5423,8 +6081,11 @@
       <c r="G219" s="1">
         <v>4.9844853065146699</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>409.1</v>
       </c>
@@ -5446,8 +6107,11 @@
       <c r="G220" s="1">
         <v>4.6248784133378003</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>396.8</v>
       </c>
@@ -5469,8 +6133,11 @@
       <c r="G221" s="1">
         <v>4.3977186931978496</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>707.1</v>
       </c>
@@ -5492,8 +6159,11 @@
       <c r="G222" s="1">
         <v>4.8437820084723402</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>786.1</v>
       </c>
@@ -5515,8 +6185,11 @@
       <c r="G223" s="1">
         <v>5.0689765721452398</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" s="1">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>413.6</v>
       </c>
@@ -5538,8 +6211,11 @@
       <c r="G224" s="1">
         <v>4.6321879720757497</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>835.9</v>
       </c>
@@ -5561,8 +6237,11 @@
       <c r="G225" s="1">
         <v>4.9257800913914602</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>502.5</v>
       </c>
@@ -5584,8 +6263,11 @@
       <c r="G226" s="1">
         <v>4.9262531782757</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>690.2</v>
       </c>
@@ -5607,8 +6289,11 @@
       <c r="G227" s="1">
         <v>5.0112561441408996</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>639.29999999999995</v>
       </c>
@@ -5630,8 +6315,11 @@
       <c r="G228" s="1">
         <v>4.99660298488772</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="1">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>980</v>
       </c>
@@ -5653,8 +6341,11 @@
       <c r="G229" s="1">
         <v>4.4028449171995501</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>700.4</v>
       </c>
@@ -5676,8 +6367,11 @@
       <c r="G230" s="1">
         <v>5.1363793009179002</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>614.9</v>
       </c>
@@ -5699,8 +6393,11 @@
       <c r="G231" s="1">
         <v>4.8063758846606603</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>674</v>
       </c>
@@ -5722,8 +6419,11 @@
       <c r="G232" s="1">
         <v>4.9594870056671603</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>515</v>
       </c>
@@ -5745,8 +6445,11 @@
       <c r="G233" s="1">
         <v>5.0490249322093401</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>730.1</v>
       </c>
@@ -5768,8 +6471,11 @@
       <c r="G234" s="1">
         <v>4.9732383884123301</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="1">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>527.4</v>
       </c>
@@ -5791,8 +6497,11 @@
       <c r="G235" s="1">
         <v>4.4428895234537702</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>502.9</v>
       </c>
@@ -5814,8 +6523,11 @@
       <c r="G236" s="1">
         <v>4.8750188312033798</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>632.20000000000005</v>
       </c>
@@ -5837,8 +6549,11 @@
       <c r="G237" s="1">
         <v>4.8666227919285596</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>916.5</v>
       </c>
@@ -5860,8 +6575,11 @@
       <c r="G238" s="1">
         <v>4.8431854730454802</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>742.7</v>
       </c>
@@ -5883,8 +6601,11 @@
       <c r="G239" s="1">
         <v>4.2039452618522102</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>410.7</v>
       </c>
@@ -5906,8 +6627,11 @@
       <c r="G240" s="1">
         <v>5.0936234498368202</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>872.7</v>
       </c>
@@ -5929,8 +6653,11 @@
       <c r="G241" s="1">
         <v>4.35900355227015</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>791.7</v>
       </c>
@@ -5952,8 +6679,11 @@
       <c r="G242" s="1">
         <v>4.5124948030783401</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>861.3</v>
       </c>
@@ -5975,8 +6705,11 @@
       <c r="G243" s="1">
         <v>4.8137811928643499</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>59.7</v>
       </c>
@@ -5998,8 +6731,11 @@
       <c r="G244" s="1">
         <v>4.1304785043233103</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>672.7</v>
       </c>
@@ -6021,8 +6757,11 @@
       <c r="G245" s="1">
         <v>4.4476174304436897</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>316.60000000000002</v>
       </c>
@@ -6044,8 +6783,11 @@
       <c r="G246" s="1">
         <v>4.3260831864616396</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245.1</v>
       </c>
@@ -6067,8 +6809,11 @@
       <c r="G247" s="1">
         <v>5.0110739186831603</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>108.4</v>
       </c>
@@ -6090,8 +6835,11 @@
       <c r="G248" s="1">
         <v>4.7834655364150596</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>668.7</v>
       </c>
@@ -6113,8 +6861,11 @@
       <c r="G249" s="1">
         <v>4.9288682232477603</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>765.9</v>
       </c>
@@ -6136,8 +6887,11 @@
       <c r="G250" s="1">
         <v>4.8713530572747903</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>474.2</v>
       </c>
@@ -6159,8 +6913,11 @@
       <c r="G251" s="1">
         <v>4.3904932545275699</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" s="1">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>477.1</v>
       </c>
@@ -6182,8 +6939,11 @@
       <c r="G252" s="1">
         <v>4.8133428054419003</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>455.4</v>
       </c>
@@ -6205,8 +6965,11 @@
       <c r="G253" s="1">
         <v>4.6425701431946003</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>797.1</v>
       </c>
@@ -6228,8 +6991,11 @@
       <c r="G254" s="1">
         <v>4.9082647102397496</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" s="1">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>948</v>
       </c>
@@ -6251,8 +7017,11 @@
       <c r="G255" s="1">
         <v>4.64287210833713</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>647.70000000000005</v>
       </c>
@@ -6274,8 +7043,11 @@
       <c r="G256" s="1">
         <v>4.9754269455589402</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>927</v>
       </c>
@@ -6297,8 +7069,11 @@
       <c r="G257" s="1">
         <v>4.93044580349427</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>207.3</v>
       </c>
@@ -6320,8 +7095,11 @@
       <c r="G258" s="1">
         <v>4.86748479574507</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>936.6</v>
       </c>
@@ -6343,8 +7121,11 @@
       <c r="G259" s="1">
         <v>4.0962159927149999</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>843.6</v>
       </c>
@@ -6366,8 +7147,11 @@
       <c r="G260" s="1">
         <v>4.9818042986729303</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>965.4</v>
       </c>
@@ -6389,8 +7173,11 @@
       <c r="G261" s="1">
         <v>4.5969347219848897</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>722.7</v>
       </c>
@@ -6412,8 +7199,11 @@
       <c r="G262" s="1">
         <v>4.7022980023319603</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>25.2</v>
       </c>
@@ -6435,8 +7225,11 @@
       <c r="G263" s="1">
         <v>4.7074244489777604</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>619.6</v>
       </c>
@@ -6458,8 +7251,11 @@
       <c r="G264" s="1">
         <v>4.5508410128291201</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>154.5</v>
       </c>
@@ -6481,8 +7277,11 @@
       <c r="G265" s="1">
         <v>5.1062830298966002</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>73</v>
       </c>
@@ -6504,8 +7303,11 @@
       <c r="G266" s="1">
         <v>5.0222006151072804</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>593.5</v>
       </c>
@@ -6527,8 +7329,11 @@
       <c r="G267" s="1">
         <v>4.91239932349061</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>888.1</v>
       </c>
@@ -6550,8 +7355,11 @@
       <c r="G268" s="1">
         <v>4.7480093278687603</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>945.4</v>
       </c>
@@ -6573,8 +7381,11 @@
       <c r="G269" s="1">
         <v>4.1185842654045999</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>874.6</v>
       </c>
@@ -6596,8 +7407,11 @@
       <c r="G270" s="1">
         <v>4.7831204984897102</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>372.1</v>
       </c>
@@ -6619,8 +7433,11 @@
       <c r="G271" s="1">
         <v>5.0951067709862397</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>66.2</v>
       </c>
@@ -6642,8 +7459,11 @@
       <c r="G272" s="1">
         <v>5.1166901149828803</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>747.1</v>
       </c>
@@ -6665,8 +7485,11 @@
       <c r="G273" s="1">
         <v>4.8785072517785997</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>632.5</v>
       </c>
@@ -6688,8 +7511,11 @@
       <c r="G274" s="1">
         <v>4.4984544608525496</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>952.1</v>
       </c>
@@ -6711,8 +7537,11 @@
       <c r="G275" s="1">
         <v>4.3445820923857799</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>912.5</v>
       </c>
@@ -6734,8 +7563,11 @@
       <c r="G276" s="1">
         <v>4.6771861240157397</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>923.3</v>
       </c>
@@ -6757,8 +7589,11 @@
       <c r="G277" s="1">
         <v>4.3730024861419103</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>345.2</v>
       </c>
@@ -6780,8 +7615,11 @@
       <c r="G278" s="1">
         <v>4.7393840843077797</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>629.4</v>
       </c>
@@ -6803,8 +7641,11 @@
       <c r="G279" s="1">
         <v>4.5160632245346299</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>988.5</v>
       </c>
@@ -6826,8 +7667,11 @@
       <c r="G280" s="1">
         <v>4.7487001646217699</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>240.6</v>
       </c>
@@ -6849,8 +7693,11 @@
       <c r="G281" s="1">
         <v>4.8997007975014002</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" s="1">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>693.5</v>
       </c>
@@ -6872,8 +7719,11 @@
       <c r="G282" s="1">
         <v>5.0558160047865996</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>855.6</v>
       </c>
@@ -6895,8 +7745,11 @@
       <c r="G283" s="1">
         <v>4.6945956256916004</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>828.8</v>
       </c>
@@ -6918,8 +7771,11 @@
       <c r="G284" s="1">
         <v>4.6559843507030596</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>759.8</v>
       </c>
@@ -6941,8 +7797,11 @@
       <c r="G285" s="1">
         <v>4.6094402655155697</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>874.2</v>
       </c>
@@ -6964,8 +7823,11 @@
       <c r="G286" s="1">
         <v>4.8950043194809902</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>384.8</v>
       </c>
@@ -6987,8 +7849,11 @@
       <c r="G287" s="1">
         <v>4.6359040602537904</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>62</v>
       </c>
@@ -7010,8 +7875,11 @@
       <c r="G288" s="1">
         <v>5.09164881791936</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>285.39999999999998</v>
       </c>
@@ -7033,8 +7901,11 @@
       <c r="G289" s="1">
         <v>4.97683350532688</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>575.4</v>
       </c>
@@ -7056,8 +7927,11 @@
       <c r="G290" s="1">
         <v>5.0803758128318899</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>950</v>
       </c>
@@ -7079,8 +7953,11 @@
       <c r="G291" s="1">
         <v>4.06742586850301</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>300.60000000000002</v>
       </c>
@@ -7102,8 +7979,11 @@
       <c r="G292" s="1">
         <v>4.7445642480031402</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>42.5</v>
       </c>
@@ -7125,8 +8005,11 @@
       <c r="G293" s="1">
         <v>4.9435044860270896</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>177.9</v>
       </c>
@@ -7148,8 +8031,11 @@
       <c r="G294" s="1">
         <v>5.0445025703340098</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>443.9</v>
       </c>
@@ -7171,8 +8057,11 @@
       <c r="G295" s="1">
         <v>4.6520248942056197</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>962.5</v>
       </c>
@@ -7194,8 +8083,11 @@
       <c r="G296" s="1">
         <v>4.6669636476649803</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>909.8</v>
       </c>
@@ -7217,8 +8109,11 @@
       <c r="G297" s="1">
         <v>4.5676894379577497</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>938.1</v>
       </c>
@@ -7240,8 +8135,11 @@
       <c r="G298" s="1">
         <v>4.9296437604572398</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>926.4</v>
       </c>
@@ -7263,8 +8161,11 @@
       <c r="G299" s="1">
         <v>4.5658900817281403</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>976.8</v>
       </c>
@@ -7286,8 +8187,11 @@
       <c r="G300" s="1">
         <v>4.2583210552645898</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>263.7</v>
       </c>
@@ -7309,8 +8213,11 @@
       <c r="G301" s="1">
         <v>5.0278187220725803</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>248.9</v>
       </c>
@@ -7332,8 +8239,11 @@
       <c r="G302" s="1">
         <v>4.4839044376736501</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" s="1">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>47.4</v>
       </c>
@@ -7355,8 +8265,11 @@
       <c r="G303" s="1">
         <v>4.8169317128670102</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>602.9</v>
       </c>
@@ -7378,8 +8291,11 @@
       <c r="G304" s="1">
         <v>4.2753902387279297</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>528.29999999999995</v>
       </c>
@@ -7401,8 +8317,11 @@
       <c r="G305" s="1">
         <v>4.9146357211492901</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>536.5</v>
       </c>
@@ -7424,8 +8343,11 @@
       <c r="G306" s="1">
         <v>4.2322117802812302</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>221.4</v>
       </c>
@@ -7447,8 +8369,11 @@
       <c r="G307" s="1">
         <v>4.9193340898220503</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" s="1">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>543.79999999999995</v>
       </c>
@@ -7470,8 +8395,11 @@
       <c r="G308" s="1">
         <v>4.5398198282943198</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>791.3</v>
       </c>
@@ -7493,8 +8421,11 @@
       <c r="G309" s="1">
         <v>4.4604378505255999</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>369.8</v>
       </c>
@@ -7516,8 +8447,11 @@
       <c r="G310" s="1">
         <v>4.5630343736603098</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>60.8</v>
       </c>
@@ -7539,8 +8473,11 @@
       <c r="G311" s="1">
         <v>5.0449837449892696</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>145.1</v>
       </c>
@@ -7562,8 +8499,11 @@
       <c r="G312" s="1">
         <v>5.0130740237475901</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>679.7</v>
       </c>
@@ -7585,8 +8525,11 @@
       <c r="G313" s="1">
         <v>4.9317008780076899</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>548.4</v>
       </c>
@@ -7608,8 +8551,11 @@
       <c r="G314" s="1">
         <v>4.65621204051752</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>229.5</v>
       </c>
@@ -7631,8 +8577,11 @@
       <c r="G315" s="1">
         <v>5.0256205199118096</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>645</v>
       </c>
@@ -7654,8 +8603,11 @@
       <c r="G316" s="1">
         <v>4.8178396806505903</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>420.1</v>
       </c>
@@ -7677,8 +8629,11 @@
       <c r="G317" s="1">
         <v>4.3194809505122</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>809.4</v>
       </c>
@@ -7700,8 +8655,11 @@
       <c r="G318" s="1">
         <v>4.9158928671957902</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>733.2</v>
       </c>
@@ -7723,8 +8681,11 @@
       <c r="G319" s="1">
         <v>4.85885714420826</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" s="1">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>776.9</v>
       </c>
@@ -7746,8 +8707,11 @@
       <c r="G320" s="1">
         <v>4.1232594976407597</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>122.7</v>
       </c>
@@ -7769,8 +8733,11 @@
       <c r="G321" s="1">
         <v>5.2206286580399004</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321" s="1">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>318.8</v>
       </c>
@@ -7791,6 +8758,9 @@
       </c>
       <c r="G322" s="1">
         <v>4.48641653903133</v>
+      </c>
+      <c r="H322" s="1">
+        <v>15.2</v>
       </c>
     </row>
   </sheetData>
